--- a/社团报销.xlsx
+++ b/社团报销.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,24 +612,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TestUser</t>
+          <t>张大佑</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TestContent</t>
+          <t>文博会网约车</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1763359655918_4488</t>
+          <t>1763359655919_2739</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>文博会网约车</t>
+          <t>UE插件-BP2AI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1763359655919_2739</t>
+          <t>1763359655919_9702</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UE插件-BP2AI</t>
+          <t>夸克网盘</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1763359655919_9702</t>
+          <t>1763359655920_4411</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>夸克网盘</t>
+          <t>阿里云服务器</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1763359655920_4411</t>
+          <t>1763359655921_4933</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>阿里云服务器</t>
+          <t>阿里域名续费1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1763359655921_4933</t>
+          <t>1763359655921_3054</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>阿里域名续费1</t>
+          <t>阿里域名续费2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1763359655921_3054</t>
+          <t>1763359655922_8139</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>阿里域名续费2</t>
+          <t>NGJ路演打车1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1763359655922_8139</t>
+          <t>1763359655924_9726</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NGJ路演打车1</t>
+          <t>NGJ路演打车2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1763359655924_9726</t>
+          <t>1763359655925_2879</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NGJ路演打车2</t>
+          <t>折叠床</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1763359655925_2879</t>
+          <t>1763359655925_6505</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>折叠床</t>
+          <t>UE老中医</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -844,30 +844,6 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>1763359655925_6505</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>张大佑</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UE老中医</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>1763359655926_4292</t>
         </is>

--- a/社团报销.xlsx
+++ b/社团报销.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>唯一ID</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>文件数量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +503,11 @@
           <t>1763359655913_7861</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +532,11 @@
           <t>1763359655914_7079</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +561,11 @@
           <t>1763359655915_7461</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +590,11 @@
           <t>1763359655916_5513</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +619,11 @@
           <t>1763359655916_6544</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +648,11 @@
           <t>1763359655917_8766</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -624,13 +669,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>1763359655919_2739</t>
         </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -656,6 +706,11 @@
           <t>1763359655919_9702</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +735,11 @@
           <t>1763359655920_4411</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +764,11 @@
           <t>1763359655921_4933</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +793,11 @@
           <t>1763359655921_3054</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +822,11 @@
           <t>1763359655922_8139</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -768,13 +843,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>check</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>1763359655924_9726</t>
         </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -792,13 +872,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>check</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>1763359655925_2879</t>
         </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -811,7 +896,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>折叠床</t>
+          <t>UE老中医</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -821,8 +906,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1763359655925_6505</t>
-        </is>
+          <t>1763359655926_4292</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -835,18 +925,429 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UE老中医</t>
+          <t>眼罩</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>check</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1763359655926_4292</t>
-        </is>
+          <t>1763365642890_3281</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>绿联触屏笔</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1763365642890_6795</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>小说绿房子</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1763369984292_6745</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>杨杰翔</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>文博会网约车</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1763367096373_7604</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>卡拉马佐夫兄弟</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1763369984292_6699</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>酒吧长谈</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1763369984293_1900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>复活</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1763369984293_1524</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>七王国的骑士</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1763369984293_8772</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>血与火死屋手记</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1763369984295_4358</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>键盘清理数据线</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1763369984295_6710</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>罪与罚</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1763369984296_2438</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>鼠标</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1763369984296_2480</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>单个的证书框</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1763369984297_6002</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>绘画防误触手套</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1763369984297_2998</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>张大佑</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>京造充电宝</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1763369984298_5809</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
